--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09104324826700719</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.509069740897536</v>
+        <v>-1.507621789210936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2307235002402084</v>
+        <v>0.235019171566545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1178430409117384</v>
+        <v>0.1198868850995211</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09396660596139303</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.402078065703068</v>
+        <v>-1.40093751403755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2053672679457614</v>
+        <v>0.2090145935927148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09390182458734686</v>
+        <v>0.09592310171008991</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1053921657510633</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.381779295660216</v>
+        <v>-1.379771436792362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2013728974337384</v>
+        <v>0.2058143398018178</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1340742499613577</v>
+        <v>0.1351690575761205</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1268472011175129</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.460172400242644</v>
+        <v>-1.45751558577473</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2327636849039307</v>
+        <v>0.237444826097972</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08402659891011904</v>
+        <v>0.08463712950754386</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1551081074107983</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.461630110660072</v>
+        <v>-1.459947949433601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3432617940690229</v>
+        <v>0.3468353193140897</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09960336307358771</v>
+        <v>0.09955029997471061</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1824871429605268</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.413364037905614</v>
+        <v>-1.412190550523551</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3973288223800312</v>
+        <v>0.4010822742247387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02816274428541092</v>
+        <v>0.02739058470864788</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2004423249757783</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.148319348300685</v>
+        <v>-1.146689030331738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4320528263486517</v>
+        <v>0.4358508024027618</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02805608417316457</v>
+        <v>-0.02931130092591207</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.201603238578087</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5729616564625866</v>
+        <v>-0.5711398234011401</v>
       </c>
       <c r="F9" t="n">
-        <v>0.366308256760625</v>
+        <v>0.3706728491234341</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02349204774905885</v>
+        <v>-0.02428067518409409</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1789172084668417</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03323057518851054</v>
+        <v>0.03538847454284517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3157592509130994</v>
+        <v>0.3192114019434935</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06183532101350226</v>
+        <v>-0.06270933734328223</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.12626131662336</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8225807662256959</v>
+        <v>0.8249374997206504</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1221484709689029</v>
+        <v>0.1258421505872891</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.004184398805922328</v>
+        <v>-0.004240511508183149</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03980544478050056</v>
       </c>
       <c r="E12" t="n">
-        <v>1.603037703875218</v>
+        <v>1.603083447925974</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2662734128113303</v>
+        <v>-0.2628901828174088</v>
       </c>
       <c r="G12" t="n">
-        <v>0.100914692528596</v>
+        <v>0.1005097051992353</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.07979042623690699</v>
       </c>
       <c r="E13" t="n">
-        <v>2.350188703129559</v>
+        <v>2.34950193244754</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6322770521970119</v>
+        <v>-0.6310267148096784</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2233245525105778</v>
+        <v>0.223706362854222</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2267909041991632</v>
       </c>
       <c r="E14" t="n">
-        <v>3.044132052306429</v>
+        <v>3.040690879848217</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.178442720604595</v>
+        <v>-1.179342963523476</v>
       </c>
       <c r="G14" t="n">
-        <v>0.396363317948739</v>
+        <v>0.3961565548393214</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3909427750104951</v>
       </c>
       <c r="E15" t="n">
-        <v>3.74774386405111</v>
+        <v>3.743036496267968</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.771193520381519</v>
+        <v>-1.773341051084349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5467154738945795</v>
+        <v>0.5462836500554419</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5616698062450028</v>
       </c>
       <c r="E16" t="n">
-        <v>4.35771455429466</v>
+        <v>4.351582411810636</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.281412903784279</v>
+        <v>-2.283664121002156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7263261346247012</v>
+        <v>0.7262541639848449</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7345459051818856</v>
       </c>
       <c r="E17" t="n">
-        <v>4.970044417715874</v>
+        <v>4.962365516395615</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.828187273027257</v>
+        <v>-2.830754429155689</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9449643996185775</v>
+        <v>0.9447954515911182</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9104400839013369</v>
       </c>
       <c r="E18" t="n">
-        <v>5.324644980129073</v>
+        <v>5.315447376323712</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.369722423656969</v>
+        <v>-3.374222113449678</v>
       </c>
       <c r="G18" t="n">
-        <v>1.138255581128158</v>
+        <v>1.138364147008619</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.090562775414375</v>
       </c>
       <c r="E19" t="n">
-        <v>5.641186492313195</v>
+        <v>5.629805372485076</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.878999174653814</v>
+        <v>-3.884735783578968</v>
       </c>
       <c r="G19" t="n">
-        <v>1.367943779022679</v>
+        <v>1.368944048932546</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.272467695861129</v>
       </c>
       <c r="E20" t="n">
-        <v>5.99023799640934</v>
+        <v>5.978292090034553</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.383933290432214</v>
+        <v>-4.391054419293586</v>
       </c>
       <c r="G20" t="n">
-        <v>1.536514265582984</v>
+        <v>1.537402920009006</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.448802968066832</v>
       </c>
       <c r="E21" t="n">
-        <v>6.198136778127037</v>
+        <v>6.184534327194202</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.695540849301782</v>
+        <v>-4.70240947100298</v>
       </c>
       <c r="G21" t="n">
-        <v>1.681271009240338</v>
+        <v>1.680883709610603</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.60950116286369</v>
       </c>
       <c r="E22" t="n">
-        <v>6.327378969529951</v>
+        <v>6.311652774800679</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.978936832228706</v>
+        <v>-4.987056706198254</v>
       </c>
       <c r="G22" t="n">
-        <v>1.882189248812653</v>
+        <v>1.882607654396902</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.746206974491286</v>
       </c>
       <c r="E23" t="n">
-        <v>6.395865742480637</v>
+        <v>6.380077335842336</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.248121358427063</v>
+        <v>-5.256944470936901</v>
       </c>
       <c r="G23" t="n">
-        <v>1.985650093209426</v>
+        <v>1.985827580126359</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.853347183290058</v>
       </c>
       <c r="E24" t="n">
-        <v>6.484362792994073</v>
+        <v>6.468883006218207</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.369863355268006</v>
+        <v>-5.378618461622386</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08217857919428</v>
+        <v>2.081571098200239</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.929504018343915</v>
       </c>
       <c r="E25" t="n">
-        <v>6.48631941852508</v>
+        <v>6.470418786482258</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.398259127255026</v>
+        <v>-5.406382355788296</v>
       </c>
       <c r="G25" t="n">
-        <v>2.142144760290796</v>
+        <v>2.140757190751194</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.974586181566778</v>
       </c>
       <c r="E26" t="n">
-        <v>6.543895930410097</v>
+        <v>6.529178544480167</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.393219657663396</v>
+        <v>-5.400582010152422</v>
       </c>
       <c r="G26" t="n">
-        <v>2.17202721392739</v>
+        <v>2.169768067740716</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.988838134059361</v>
       </c>
       <c r="E27" t="n">
-        <v>6.42416362219904</v>
+        <v>6.410198878384216</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.379237226148947</v>
+        <v>-5.385820404973427</v>
       </c>
       <c r="G27" t="n">
-        <v>2.178331354042258</v>
+        <v>2.176572342810517</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.973033228266641</v>
       </c>
       <c r="E28" t="n">
-        <v>6.333636755673385</v>
+        <v>6.320317307934562</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.306709728714805</v>
+        <v>-5.311950167169424</v>
       </c>
       <c r="G28" t="n">
-        <v>2.137732594115201</v>
+        <v>2.135536269758231</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.928487680791695</v>
       </c>
       <c r="E29" t="n">
-        <v>6.235981136277901</v>
+        <v>6.22520993712653</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.140634427643076</v>
+        <v>-5.145104536282963</v>
       </c>
       <c r="G29" t="n">
-        <v>2.050904286573347</v>
+        <v>2.049545383305552</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.85724071362663</v>
       </c>
       <c r="E30" t="n">
-        <v>6.073630010858396</v>
+        <v>6.063338209358949</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.934980154015812</v>
+        <v>-4.938657365775926</v>
       </c>
       <c r="G30" t="n">
-        <v>1.997406924174421</v>
+        <v>1.995443589515969</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.76223163086349</v>
       </c>
       <c r="E31" t="n">
-        <v>5.909210034503361</v>
+        <v>5.899972175933335</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.795714831171559</v>
+        <v>-4.79752660054184</v>
       </c>
       <c r="G31" t="n">
-        <v>1.893616112691528</v>
+        <v>1.891213635145817</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.647181147935022</v>
       </c>
       <c r="E32" t="n">
-        <v>5.726788859294785</v>
+        <v>5.718634219846663</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.543520255344697</v>
+        <v>-4.544474171283131</v>
       </c>
       <c r="G32" t="n">
-        <v>1.828355820120839</v>
+        <v>1.825508710401779</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.517877869768869</v>
       </c>
       <c r="E33" t="n">
-        <v>5.467754328038531</v>
+        <v>5.460591419610802</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.388384491531122</v>
+        <v>-4.388546730431137</v>
       </c>
       <c r="G33" t="n">
-        <v>1.732436644892056</v>
+        <v>1.729677363750447</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.380864867691642</v>
       </c>
       <c r="E34" t="n">
-        <v>5.255909359542274</v>
+        <v>5.249941895640972</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.16453323451308</v>
+        <v>-4.164687239483959</v>
       </c>
       <c r="G34" t="n">
-        <v>1.585361592742382</v>
+        <v>1.58274930248387</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.24227575291266</v>
       </c>
       <c r="E35" t="n">
-        <v>4.993808147123332</v>
+        <v>4.988246890392743</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.028914932355442</v>
+        <v>-4.028016519198592</v>
       </c>
       <c r="G35" t="n">
-        <v>1.519342558849819</v>
+        <v>1.51685530233004</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.107011907963696</v>
       </c>
       <c r="E36" t="n">
-        <v>4.695300769509297</v>
+        <v>4.690365291393052</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.864008849221039</v>
+        <v>-3.864334546862423</v>
       </c>
       <c r="G36" t="n">
-        <v>1.474915326834814</v>
+        <v>1.472704364381602</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9793466283177729</v>
       </c>
       <c r="E37" t="n">
-        <v>4.38171615276605</v>
+        <v>4.376931934977638</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.723089116541107</v>
+        <v>-3.723461778074601</v>
       </c>
       <c r="G37" t="n">
-        <v>1.378128844403695</v>
+        <v>1.376978534007348</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8617178191165585</v>
       </c>
       <c r="E38" t="n">
-        <v>4.10646871008048</v>
+        <v>4.102581075686888</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.625234967965341</v>
+        <v>-3.625432887224945</v>
       </c>
       <c r="G38" t="n">
-        <v>1.266974460590422</v>
+        <v>1.266218158951254</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.755104696565451</v>
       </c>
       <c r="E39" t="n">
-        <v>3.847907477269383</v>
+        <v>3.844172323044977</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.561031972887795</v>
+        <v>-3.563084965885729</v>
       </c>
       <c r="G39" t="n">
-        <v>1.178179768786732</v>
+        <v>1.177331979046053</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6597857808992476</v>
       </c>
       <c r="E40" t="n">
-        <v>3.509033109585455</v>
+        <v>3.507014272145418</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.480910048147125</v>
+        <v>-3.482222902403825</v>
       </c>
       <c r="G40" t="n">
-        <v>1.095767286944535</v>
+        <v>1.096152146891563</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5757368102989019</v>
       </c>
       <c r="E41" t="n">
-        <v>3.291381696246557</v>
+        <v>3.288577280974869</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.389229516661402</v>
+        <v>-3.391030307459501</v>
       </c>
       <c r="G41" t="n">
-        <v>1.032505094510873</v>
+        <v>1.033220531464698</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5024516927845006</v>
       </c>
       <c r="E42" t="n">
-        <v>2.99283162418515</v>
+        <v>2.991166540737628</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.303554264158941</v>
+        <v>-3.306964025702301</v>
       </c>
       <c r="G42" t="n">
-        <v>1.021071521504554</v>
+        <v>1.021469189785793</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4389591749255427</v>
       </c>
       <c r="E43" t="n">
-        <v>2.649410907776742</v>
+        <v>2.647306681441961</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.208069352452002</v>
+        <v>-3.211589509637853</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9272199773699462</v>
+        <v>0.9282574524410947</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3835326609898932</v>
       </c>
       <c r="E44" t="n">
-        <v>2.423248661314501</v>
+        <v>2.421396942139894</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.177538858096363</v>
+        <v>-3.180288380507143</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9148757927932423</v>
+        <v>0.9161224706565153</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3352121236101234</v>
       </c>
       <c r="E45" t="n">
-        <v>2.158407685215606</v>
+        <v>2.156697467638005</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.084552791402061</v>
+        <v>-3.087166911422603</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8434077275746118</v>
+        <v>0.845322268578924</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2920703235073533</v>
       </c>
       <c r="E46" t="n">
-        <v>2.011611976735884</v>
+        <v>2.011037431458387</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.001978680580525</v>
+        <v>-3.004615672626445</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8033170315712852</v>
+        <v>0.8048851376312045</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.252577802640004</v>
       </c>
       <c r="E47" t="n">
-        <v>1.785409475508978</v>
+        <v>1.784601940532963</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.928753433892183</v>
+        <v>-2.931987233320302</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7316397635605302</v>
+        <v>0.7333280239937688</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2154938273786167</v>
       </c>
       <c r="E48" t="n">
-        <v>1.662495211127325</v>
+        <v>1.662139627372781</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.85566358959408</v>
+        <v>-2.859669548598961</v>
       </c>
       <c r="G48" t="n">
-        <v>0.663187756088419</v>
+        <v>0.6652096431318387</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1799893003462241</v>
       </c>
       <c r="E49" t="n">
-        <v>1.473321604106471</v>
+        <v>1.473508239833556</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.819112873198599</v>
+        <v>-2.823203611177548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.582444017217804</v>
+        <v>0.5847867225371933</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1453791845425253</v>
       </c>
       <c r="E50" t="n">
-        <v>1.380739304900176</v>
+        <v>1.381188206518263</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.736489968722923</v>
+        <v>-2.739751214581495</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5781861609734258</v>
+        <v>0.5812528421361151</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1110425243217539</v>
       </c>
       <c r="E51" t="n">
-        <v>1.290943733265944</v>
+        <v>1.292547824645791</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.664596178871923</v>
+        <v>-2.667895239812453</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4873384761718026</v>
+        <v>0.4891859259016725</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07637131069433067</v>
       </c>
       <c r="E52" t="n">
-        <v>1.243769418522865</v>
+        <v>1.244918509077858</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.58222029227033</v>
+        <v>-2.584104947161482</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4099511307853322</v>
+        <v>0.4116869650313573</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04109373372877492</v>
       </c>
       <c r="E53" t="n">
-        <v>1.215858838434197</v>
+        <v>1.217903902463333</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.5353857033442</v>
+        <v>-2.537786351127881</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4029894961809299</v>
+        <v>0.4049320935363725</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.004378570771349178</v>
       </c>
       <c r="E54" t="n">
-        <v>1.137028420726541</v>
+        <v>1.139383324459465</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.477414572781328</v>
+        <v>-2.479140648296525</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3484253825183719</v>
+        <v>0.3500014175470889</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.03423586255327656</v>
       </c>
       <c r="E55" t="n">
-        <v>1.132603446216734</v>
+        <v>1.134004434011224</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.455839848682718</v>
+        <v>-2.458293559565276</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3197609404732434</v>
+        <v>0.3214729878128753</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.07507259793972196</v>
       </c>
       <c r="E56" t="n">
-        <v>1.115172523195951</v>
+        <v>1.11614046730995</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.420570575629085</v>
+        <v>-2.422879735311253</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2694955477404057</v>
+        <v>0.2711545319811605</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1183339778391775</v>
       </c>
       <c r="E57" t="n">
-        <v>1.018980103503984</v>
+        <v>1.020597003218044</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.386836472918827</v>
+        <v>-2.389575626678103</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2352058072936299</v>
+        <v>0.2373014947389362</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1637290905445929</v>
       </c>
       <c r="E58" t="n">
-        <v>1.030286203088863</v>
+        <v>1.032331877038676</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.415682671325627</v>
+        <v>-2.418626148511613</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2297464073160581</v>
+        <v>0.2318457542854249</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2111694812936923</v>
       </c>
       <c r="E59" t="n">
-        <v>1.016176298152974</v>
+        <v>1.017880416523808</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.34334180961857</v>
+        <v>-2.346557921347062</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2241479454241876</v>
+        <v>0.2262064277082123</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2601316574526264</v>
       </c>
       <c r="E60" t="n">
-        <v>1.023936928843916</v>
+        <v>1.025429404739919</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.361987694627434</v>
+        <v>-2.364576197979553</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2039443230069082</v>
+        <v>0.2057826239266269</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3100922032518072</v>
       </c>
       <c r="E61" t="n">
-        <v>1.139075314517707</v>
+        <v>1.142162732983406</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.389740305260824</v>
+        <v>-2.392806986423514</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2233019854455381</v>
+        <v>0.2264510058995883</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.360301651580947</v>
       </c>
       <c r="E62" t="n">
-        <v>1.170228842844645</v>
+        <v>1.174332389157806</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.376045146385124</v>
+        <v>-2.380411568509963</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1918898507516596</v>
+        <v>0.1942075493233022</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4095590201083175</v>
       </c>
       <c r="E63" t="n">
-        <v>1.241341324308731</v>
+        <v>1.245779717073427</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.386218623273281</v>
+        <v>-2.389646377476605</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1604630779615392</v>
+        <v>0.1618799236936249</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4567404900052926</v>
       </c>
       <c r="E64" t="n">
-        <v>1.341311592672475</v>
+        <v>1.345710340593182</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.452597510365126</v>
+        <v>-2.45615273798989</v>
       </c>
       <c r="G64" t="n">
-        <v>0.184471385560373</v>
+        <v>0.1866048880876377</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5003108661983707</v>
       </c>
       <c r="E65" t="n">
-        <v>1.392893804146412</v>
+        <v>1.399054002981567</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.586800796552708</v>
+        <v>-2.591111715895963</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1520833777836976</v>
+        <v>0.1533263961229101</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5390688097742792</v>
       </c>
       <c r="E66" t="n">
-        <v>1.444519929909074</v>
+        <v>1.450079356877633</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.672409872661742</v>
+        <v>-2.676140147520733</v>
       </c>
       <c r="G66" t="n">
-        <v>0.158161237327492</v>
+        <v>0.1596896985434226</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5717827283593705</v>
       </c>
       <c r="E67" t="n">
-        <v>1.499226155089315</v>
+        <v>1.50521191661092</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.722228193538523</v>
+        <v>-2.727084991887468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1166597947988471</v>
+        <v>0.1183346369771973</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5976394160374964</v>
       </c>
       <c r="E68" t="n">
-        <v>1.547148842502763</v>
+        <v>1.553440174283419</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.820998138010427</v>
+        <v>-2.826178194318048</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07797984532083881</v>
+        <v>0.07943572597623641</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6160914497432665</v>
       </c>
       <c r="E69" t="n">
-        <v>1.547450143317077</v>
+        <v>1.554863729142949</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.875431728648161</v>
+        <v>-2.880767314728353</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1118938746307378</v>
+        <v>0.113551639030139</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.626753366588589</v>
       </c>
       <c r="E70" t="n">
-        <v>1.569296892037515</v>
+        <v>1.576660464367895</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.913392581648284</v>
+        <v>-2.919295393957851</v>
       </c>
       <c r="G70" t="n">
-        <v>0.112062822658197</v>
+        <v>0.1143786914678094</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6293351198057874</v>
       </c>
       <c r="E71" t="n">
-        <v>1.565938058870664</v>
+        <v>1.572552648609996</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.988243876860836</v>
+        <v>-2.993773112755895</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1097987971061082</v>
+        <v>0.111673083345755</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6237048076982624</v>
       </c>
       <c r="E72" t="n">
-        <v>1.554342856885006</v>
+        <v>1.561696060563881</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.06129590607698</v>
+        <v>-3.067495444795786</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06518065991928081</v>
+        <v>0.06778441128831826</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6098685221279438</v>
       </c>
       <c r="E73" t="n">
-        <v>1.594912950540257</v>
+        <v>1.601726984340886</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.127629049118069</v>
+        <v>-3.134713277778498</v>
       </c>
       <c r="G73" t="n">
-        <v>0.004199570816656477</v>
+        <v>0.006078736421717243</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5880522578114563</v>
       </c>
       <c r="E74" t="n">
-        <v>1.571178497325283</v>
+        <v>1.57732710766758</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.173681109815931</v>
+        <v>-3.181644844092231</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01833089898241679</v>
+        <v>-0.01587169881376862</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5590866152021348</v>
       </c>
       <c r="E75" t="n">
-        <v>1.543817455766365</v>
+        <v>1.549764182364659</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.187286915312489</v>
+        <v>-3.19597432047175</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.002996273327617111</v>
+        <v>-0.0006889434074792076</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5243219825867744</v>
       </c>
       <c r="E76" t="n">
-        <v>1.54837600290438</v>
+        <v>1.554685632305339</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.257245121895829</v>
+        <v>-3.264620587679405</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01476530270614764</v>
+        <v>-0.01199565291303471</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4852064917604439</v>
       </c>
       <c r="E77" t="n">
-        <v>1.42200836765098</v>
+        <v>1.426587042171328</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.278982084894453</v>
+        <v>-3.287823495024593</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02147504007105302</v>
+        <v>-0.01845715256250363</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4432331700510104</v>
       </c>
       <c r="E78" t="n">
-        <v>1.457885121698655</v>
+        <v>1.462310096208462</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.278346242588944</v>
+        <v>-3.285783920281548</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009802302153264136</v>
+        <v>0.01257927099449804</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3994329211129102</v>
       </c>
       <c r="E79" t="n">
-        <v>1.481895868980195</v>
+        <v>1.484082434606337</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.233290487316549</v>
+        <v>-3.241575954749833</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0496362215516798</v>
+        <v>0.05209054235491398</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3547847975494358</v>
       </c>
       <c r="E80" t="n">
-        <v>1.512276017889016</v>
+        <v>1.514117978332795</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.182931166799492</v>
+        <v>-3.191678039224736</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04006412645079578</v>
+        <v>0.04268129607472169</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.310080993403684</v>
       </c>
       <c r="E81" t="n">
-        <v>1.640619186214403</v>
+        <v>1.641654831523521</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.06918462011004</v>
+        <v>-3.077213615898752</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01481767987816342</v>
+        <v>0.0177288312682819</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2657815907092527</v>
       </c>
       <c r="E82" t="n">
-        <v>1.715400950469806</v>
+        <v>1.716326200136432</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.949691400804268</v>
+        <v>-2.957756991833584</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03539213406690565</v>
+        <v>0.03841002157545505</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2219805058602414</v>
       </c>
       <c r="E83" t="n">
-        <v>1.892448114595555</v>
+        <v>1.892667686039184</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.812479375918287</v>
+        <v>-2.820579122505501</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08289092661001417</v>
+        <v>0.08614485342046506</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1792955712927113</v>
       </c>
       <c r="E84" t="n">
-        <v>2.088988953470849</v>
+        <v>2.089676334073544</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.730321230998293</v>
+        <v>-2.738417927982124</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04199330555134988</v>
+        <v>0.0456333121501823</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1382179662304072</v>
       </c>
       <c r="E85" t="n">
-        <v>2.231532294992284</v>
+        <v>2.232109279952488</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.515013132899461</v>
+        <v>-2.522005263537701</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09130783194913736</v>
+        <v>0.09417262936782299</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09955916506129212</v>
       </c>
       <c r="E86" t="n">
-        <v>2.386425310376514</v>
+        <v>2.387550004104438</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.327423489876122</v>
+        <v>-2.334141156209825</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08994282947457521</v>
+        <v>0.09395610752757744</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06417910701757824</v>
       </c>
       <c r="E87" t="n">
-        <v>2.498448221233477</v>
+        <v>2.498925179202693</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.062184845495987</v>
+        <v>-2.068120593522099</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1054146872816432</v>
+        <v>0.1094968863711179</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0329519012495878</v>
       </c>
       <c r="E88" t="n">
-        <v>2.593412870603149</v>
+        <v>2.593003003908374</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.757794782954717</v>
+        <v>-1.763091944032274</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1150422851641113</v>
+        <v>0.1198722470032792</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.00676099955878099</v>
       </c>
       <c r="E89" t="n">
-        <v>2.625552030743711</v>
+        <v>2.625769162504634</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.550814541776203</v>
+        <v>-1.556007406418036</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06240308115737015</v>
+        <v>0.06534899802606327</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01336543260604449</v>
       </c>
       <c r="E90" t="n">
-        <v>2.682568635447473</v>
+        <v>2.68224659733015</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.32358188452627</v>
+        <v>-1.327535390352951</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06045804411922059</v>
+        <v>0.06332528122061322</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02599008656441379</v>
       </c>
       <c r="E91" t="n">
-        <v>2.68768952944945</v>
+        <v>2.687982291374289</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.960777889010809</v>
+        <v>-0.96428310314008</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0625445827543757</v>
+        <v>0.06541242977644507</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0302865064996156</v>
       </c>
       <c r="E92" t="n">
-        <v>2.621721728893733</v>
+        <v>2.621964477323079</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7513427171083841</v>
+        <v>-0.7543728030304684</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05292613368205883</v>
+        <v>0.05495046040818563</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02607479849679356</v>
       </c>
       <c r="E93" t="n">
-        <v>2.54595738242809</v>
+        <v>2.545682918123553</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4238232426634747</v>
+        <v>-0.426555687295306</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03312757460032467</v>
+        <v>-0.03149664671070036</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01464229341159038</v>
       </c>
       <c r="E94" t="n">
-        <v>2.494193414592482</v>
+        <v>2.493981162196974</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1555618314093763</v>
+        <v>-0.1567975307004679</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08233597480035798</v>
+        <v>-0.08067699055960327</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.001935321935385736</v>
       </c>
       <c r="E95" t="n">
-        <v>2.342045042253619</v>
+        <v>2.341310697758814</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05889603726606882</v>
+        <v>0.05753103479150666</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1318237186703419</v>
+        <v>-0.131624884529722</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02124207192690246</v>
       </c>
       <c r="E96" t="n">
-        <v>2.181285809800426</v>
+        <v>2.180245285125894</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2297689743810978</v>
+        <v>0.2289236243231249</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1872966141412545</v>
+        <v>-0.1869477395141546</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04074844793138902</v>
       </c>
       <c r="E97" t="n">
-        <v>2.006445948603828</v>
+        <v>2.004052619868268</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3588885717279848</v>
+        <v>0.3581792339809269</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2072257722539973</v>
+        <v>-0.2074630313972523</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05978327177656753</v>
       </c>
       <c r="E98" t="n">
-        <v>1.78994606550263</v>
+        <v>1.787158728009891</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4564581923080484</v>
+        <v>0.4560086807692851</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.345988825420948</v>
+        <v>-0.3461095897149441</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07722977751500908</v>
       </c>
       <c r="E99" t="n">
-        <v>1.623841488238417</v>
+        <v>1.62064123444752</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5101049852727774</v>
+        <v>0.5089125903497349</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3303876644304094</v>
+        <v>-0.3308036303319516</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09390237686567113</v>
       </c>
       <c r="E100" t="n">
-        <v>1.440444439947044</v>
+        <v>1.437060600032446</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5305281791336861</v>
+        <v>0.529625496532099</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4320120376694941</v>
+        <v>-0.4327164960511381</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1094328387313049</v>
       </c>
       <c r="E101" t="n">
-        <v>1.298406112745956</v>
+        <v>1.294605697009139</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5280201853108981</v>
+        <v>0.5266198074370845</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.435084208118274</v>
+        <v>-0.435348303771306</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1279541627099537</v>
       </c>
       <c r="E102" t="n">
-        <v>1.079649523140791</v>
+        <v>1.076638344759685</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4823023611438939</v>
+        <v>0.481006889626481</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4703022478350604</v>
+        <v>-0.4710396419332488</v>
       </c>
     </row>
   </sheetData>
